--- a/testData/ProfileAnalysisData.xlsx
+++ b/testData/ProfileAnalysisData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2457173\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2457173\IdeaProjects\PentagonProfileStats\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854B9761-ED87-4806-A834-1BE96B7CF7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B300E1-A8BA-4A37-AD31-7FC5F1FA64FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProfileAnalysisData" sheetId="1" r:id="rId1"/>
-    <sheet name="SkillsData" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="SkillsData" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="846">
   <si>
     <t>Name</t>
   </si>
@@ -2581,7 +2582,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2945,20 +2946,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="50.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
+    <col min="3" max="3" width="50.26953125" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2975,7 +2976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2992,7 +2993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3009,7 +3010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3026,7 +3027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -3043,7 +3044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3060,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -3077,7 +3078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3094,7 +3095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -3111,7 +3112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -3128,7 +3129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -3145,7 +3146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -3162,7 +3163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -3179,7 +3180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -3196,7 +3197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -3213,7 +3214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -3230,7 +3231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -3247,7 +3248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -3264,7 +3265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -3281,7 +3282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -3298,7 +3299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -3315,7 +3316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -3332,7 +3333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -3349,7 +3350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -3366,7 +3367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -3383,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -3400,7 +3401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -3417,7 +3418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -3434,7 +3435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -3451,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -3468,7 +3469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -3485,7 +3486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -3502,7 +3503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -3519,7 +3520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -3536,7 +3537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -3553,7 +3554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -3570,7 +3571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -3587,7 +3588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -3604,7 +3605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -3621,7 +3622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -3638,7 +3639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>89</v>
       </c>
@@ -3655,7 +3656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -3672,7 +3673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -3689,7 +3690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -3706,7 +3707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -3723,7 +3724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -3740,7 +3741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -3757,7 +3758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -3774,7 +3775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -3791,7 +3792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -3808,7 +3809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -3825,7 +3826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -3842,7 +3843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -3859,7 +3860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>115</v>
       </c>
@@ -3876,7 +3877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>117</v>
       </c>
@@ -3893,7 +3894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>119</v>
       </c>
@@ -3910,7 +3911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>121</v>
       </c>
@@ -3927,7 +3928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>123</v>
       </c>
@@ -3944,7 +3945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>125</v>
       </c>
@@ -3961,7 +3962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>127</v>
       </c>
@@ -3978,7 +3979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>129</v>
       </c>
@@ -3995,7 +3996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>131</v>
       </c>
@@ -4012,7 +4013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>133</v>
       </c>
@@ -4029,7 +4030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>135</v>
       </c>
@@ -4046,7 +4047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>137</v>
       </c>
@@ -4063,7 +4064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>139</v>
       </c>
@@ -4080,7 +4081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>141</v>
       </c>
@@ -4097,7 +4098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>143</v>
       </c>
@@ -4114,7 +4115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>145</v>
       </c>
@@ -4131,7 +4132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>147</v>
       </c>
@@ -4148,7 +4149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -4165,7 +4166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>151</v>
       </c>
@@ -4182,7 +4183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>153</v>
       </c>
@@ -4199,7 +4200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>155</v>
       </c>
@@ -4216,7 +4217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>157</v>
       </c>
@@ -4233,7 +4234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>159</v>
       </c>
@@ -4250,7 +4251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>161</v>
       </c>
@@ -4267,7 +4268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>163</v>
       </c>
@@ -4284,7 +4285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>165</v>
       </c>
@@ -4301,7 +4302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>167</v>
       </c>
@@ -4318,7 +4319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>169</v>
       </c>
@@ -4335,7 +4336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>171</v>
       </c>
@@ -4352,7 +4353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>173</v>
       </c>
@@ -4369,7 +4370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>175</v>
       </c>
@@ -4386,7 +4387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>177</v>
       </c>
@@ -4403,7 +4404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>179</v>
       </c>
@@ -4420,7 +4421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -4437,7 +4438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>183</v>
       </c>
@@ -4454,7 +4455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>185</v>
       </c>
@@ -4471,7 +4472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>187</v>
       </c>
@@ -4488,7 +4489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>189</v>
       </c>
@@ -4505,7 +4506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>191</v>
       </c>
@@ -4522,7 +4523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>193</v>
       </c>
@@ -4539,7 +4540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>195</v>
       </c>
@@ -4556,7 +4557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>197</v>
       </c>
@@ -4573,7 +4574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>199</v>
       </c>
@@ -4590,7 +4591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>201</v>
       </c>
@@ -4607,7 +4608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>203</v>
       </c>
@@ -4624,7 +4625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>205</v>
       </c>
@@ -4641,7 +4642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>207</v>
       </c>
@@ -4658,7 +4659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>209</v>
       </c>
@@ -4675,7 +4676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>211</v>
       </c>
@@ -4692,7 +4693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>213</v>
       </c>
@@ -4709,7 +4710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>215</v>
       </c>
@@ -4726,7 +4727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>217</v>
       </c>
@@ -4743,7 +4744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>219</v>
       </c>
@@ -4760,7 +4761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>221</v>
       </c>
@@ -4777,7 +4778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>223</v>
       </c>
@@ -4794,7 +4795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>225</v>
       </c>
@@ -4811,7 +4812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>227</v>
       </c>
@@ -4828,7 +4829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>229</v>
       </c>
@@ -4845,7 +4846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>231</v>
       </c>
@@ -4862,7 +4863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>233</v>
       </c>
@@ -4879,7 +4880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>235</v>
       </c>
@@ -4896,7 +4897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>237</v>
       </c>
@@ -4913,7 +4914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>239</v>
       </c>
@@ -4930,7 +4931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>241</v>
       </c>
@@ -4947,7 +4948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>243</v>
       </c>
@@ -4964,7 +4965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>245</v>
       </c>
@@ -4981,7 +4982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>247</v>
       </c>
@@ -4998,7 +4999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>249</v>
       </c>
@@ -5015,7 +5016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>251</v>
       </c>
@@ -5032,7 +5033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>253</v>
       </c>
@@ -5049,7 +5050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>255</v>
       </c>
@@ -5066,7 +5067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>257</v>
       </c>
@@ -5083,7 +5084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>259</v>
       </c>
@@ -5100,7 +5101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>261</v>
       </c>
@@ -5117,7 +5118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>263</v>
       </c>
@@ -5134,7 +5135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>265</v>
       </c>
@@ -5151,7 +5152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>267</v>
       </c>
@@ -5168,7 +5169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>269</v>
       </c>
@@ -5185,7 +5186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>271</v>
       </c>
@@ -5202,7 +5203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>273</v>
       </c>
@@ -5219,7 +5220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>275</v>
       </c>
@@ -5236,7 +5237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>277</v>
       </c>
@@ -5253,7 +5254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>279</v>
       </c>
@@ -5270,7 +5271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>281</v>
       </c>
@@ -5287,7 +5288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>283</v>
       </c>
@@ -5304,7 +5305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>285</v>
       </c>
@@ -5321,7 +5322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>287</v>
       </c>
@@ -5338,7 +5339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>289</v>
       </c>
@@ -5355,7 +5356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>291</v>
       </c>
@@ -5372,7 +5373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>293</v>
       </c>
@@ -5389,7 +5390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>295</v>
       </c>
@@ -5406,7 +5407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>297</v>
       </c>
@@ -5423,7 +5424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>299</v>
       </c>
@@ -5440,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>301</v>
       </c>
@@ -5457,7 +5458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>303</v>
       </c>
@@ -5474,7 +5475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>305</v>
       </c>
@@ -5491,7 +5492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>307</v>
       </c>
@@ -5508,7 +5509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>309</v>
       </c>
@@ -5525,7 +5526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>311</v>
       </c>
@@ -5542,7 +5543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>313</v>
       </c>
@@ -5559,7 +5560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>315</v>
       </c>
@@ -5576,7 +5577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>317</v>
       </c>
@@ -5593,7 +5594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>319</v>
       </c>
@@ -5610,7 +5611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>321</v>
       </c>
@@ -5627,7 +5628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>323</v>
       </c>
@@ -5644,7 +5645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>325</v>
       </c>
@@ -5661,7 +5662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>327</v>
       </c>
@@ -5678,7 +5679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>329</v>
       </c>
@@ -5695,7 +5696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>331</v>
       </c>
@@ -5712,7 +5713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>333</v>
       </c>
@@ -5729,7 +5730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>335</v>
       </c>
@@ -5746,7 +5747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>337</v>
       </c>
@@ -5763,7 +5764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>339</v>
       </c>
@@ -5780,7 +5781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>341</v>
       </c>
@@ -5797,7 +5798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>343</v>
       </c>
@@ -5814,7 +5815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>345</v>
       </c>
@@ -5831,7 +5832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>347</v>
       </c>
@@ -5848,7 +5849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>349</v>
       </c>
@@ -5865,7 +5866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>351</v>
       </c>
@@ -5882,7 +5883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>353</v>
       </c>
@@ -5899,7 +5900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>355</v>
       </c>
@@ -5916,7 +5917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>357</v>
       </c>
@@ -5933,7 +5934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>359</v>
       </c>
@@ -5950,7 +5951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>361</v>
       </c>
@@ -5967,7 +5968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>363</v>
       </c>
@@ -5984,7 +5985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>365</v>
       </c>
@@ -6001,7 +6002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>367</v>
       </c>
@@ -6018,7 +6019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>369</v>
       </c>
@@ -6035,7 +6036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>371</v>
       </c>
@@ -6052,7 +6053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>373</v>
       </c>
@@ -6069,7 +6070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>375</v>
       </c>
@@ -6086,7 +6087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>377</v>
       </c>
@@ -6103,7 +6104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>379</v>
       </c>
@@ -6120,7 +6121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>381</v>
       </c>
@@ -6137,7 +6138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>383</v>
       </c>
@@ -6154,7 +6155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>385</v>
       </c>
@@ -6171,7 +6172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>387</v>
       </c>
@@ -6188,7 +6189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>389</v>
       </c>
@@ -6205,7 +6206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>391</v>
       </c>
@@ -6222,7 +6223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>393</v>
       </c>
@@ -6239,7 +6240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>395</v>
       </c>
@@ -6256,7 +6257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>397</v>
       </c>
@@ -6273,7 +6274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>399</v>
       </c>
@@ -6290,7 +6291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>401</v>
       </c>
@@ -6307,7 +6308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>403</v>
       </c>
@@ -6324,7 +6325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>405</v>
       </c>
@@ -6341,7 +6342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>407</v>
       </c>
@@ -6358,7 +6359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>409</v>
       </c>
@@ -6375,7 +6376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>411</v>
       </c>
@@ -6392,7 +6393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>413</v>
       </c>
@@ -6409,7 +6410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>415</v>
       </c>
@@ -6426,7 +6427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>417</v>
       </c>
@@ -6443,7 +6444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>419</v>
       </c>
@@ -6460,7 +6461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>421</v>
       </c>
@@ -6477,7 +6478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>423</v>
       </c>
@@ -6494,7 +6495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>425</v>
       </c>
@@ -6511,7 +6512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>427</v>
       </c>
@@ -6528,7 +6529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>429</v>
       </c>
@@ -6545,7 +6546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>431</v>
       </c>
@@ -6562,7 +6563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>433</v>
       </c>
@@ -6579,7 +6580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>435</v>
       </c>
@@ -6596,7 +6597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>437</v>
       </c>
@@ -6613,7 +6614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>439</v>
       </c>
@@ -6630,7 +6631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>441</v>
       </c>
@@ -6647,7 +6648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>443</v>
       </c>
@@ -6664,7 +6665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>445</v>
       </c>
@@ -6681,7 +6682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>447</v>
       </c>
@@ -6698,7 +6699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>449</v>
       </c>
@@ -6715,7 +6716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>451</v>
       </c>
@@ -6732,7 +6733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>453</v>
       </c>
@@ -6749,7 +6750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>455</v>
       </c>
@@ -6766,7 +6767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>457</v>
       </c>
@@ -6783,7 +6784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>459</v>
       </c>
@@ -6800,7 +6801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>461</v>
       </c>
@@ -6817,7 +6818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>463</v>
       </c>
@@ -6834,7 +6835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>465</v>
       </c>
@@ -6851,7 +6852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>467</v>
       </c>
@@ -6868,7 +6869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>469</v>
       </c>
@@ -6885,7 +6886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>471</v>
       </c>
@@ -6902,7 +6903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>473</v>
       </c>
@@ -6919,7 +6920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>475</v>
       </c>
@@ -6936,7 +6937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>477</v>
       </c>
@@ -6953,7 +6954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>479</v>
       </c>
@@ -6970,7 +6971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>481</v>
       </c>
@@ -6987,7 +6988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>483</v>
       </c>
@@ -7004,7 +7005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>485</v>
       </c>
@@ -7021,7 +7022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>487</v>
       </c>
@@ -7038,7 +7039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>489</v>
       </c>
@@ -7055,7 +7056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>491</v>
       </c>
@@ -7072,7 +7073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>493</v>
       </c>
@@ -7089,7 +7090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>495</v>
       </c>
@@ -7106,7 +7107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>497</v>
       </c>
@@ -7123,7 +7124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>499</v>
       </c>
@@ -7140,7 +7141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>501</v>
       </c>
@@ -7157,7 +7158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>503</v>
       </c>
@@ -7174,7 +7175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>505</v>
       </c>
@@ -7191,7 +7192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>507</v>
       </c>
@@ -7208,7 +7209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>509</v>
       </c>
@@ -7225,7 +7226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>511</v>
       </c>
@@ -7242,7 +7243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>513</v>
       </c>
@@ -7259,7 +7260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>515</v>
       </c>
@@ -7276,7 +7277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>517</v>
       </c>
@@ -7293,7 +7294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>519</v>
       </c>
@@ -7310,7 +7311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>521</v>
       </c>
@@ -7327,7 +7328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>523</v>
       </c>
@@ -7344,7 +7345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>525</v>
       </c>
@@ -7361,7 +7362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>527</v>
       </c>
@@ -7378,7 +7379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>529</v>
       </c>
@@ -7395,7 +7396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>531</v>
       </c>
@@ -7412,7 +7413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>533</v>
       </c>
@@ -7429,7 +7430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>535</v>
       </c>
@@ -7446,7 +7447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>537</v>
       </c>
@@ -7463,7 +7464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>539</v>
       </c>
@@ -7480,7 +7481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>541</v>
       </c>
@@ -7497,7 +7498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>543</v>
       </c>
@@ -7514,7 +7515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>545</v>
       </c>
@@ -7531,7 +7532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>547</v>
       </c>
@@ -7548,7 +7549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>549</v>
       </c>
@@ -7565,7 +7566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>551</v>
       </c>
@@ -7582,7 +7583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>553</v>
       </c>
@@ -7599,7 +7600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>555</v>
       </c>
@@ -7616,7 +7617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>557</v>
       </c>
@@ -7633,7 +7634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>559</v>
       </c>
@@ -7650,7 +7651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>561</v>
       </c>
@@ -7667,7 +7668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>563</v>
       </c>
@@ -7684,7 +7685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>565</v>
       </c>
@@ -7701,7 +7702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>567</v>
       </c>
@@ -7718,7 +7719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>569</v>
       </c>
@@ -7735,7 +7736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>571</v>
       </c>
@@ -7752,7 +7753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>573</v>
       </c>
@@ -7769,7 +7770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>575</v>
       </c>
@@ -7786,7 +7787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>577</v>
       </c>
@@ -7803,7 +7804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>579</v>
       </c>
@@ -7820,7 +7821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>581</v>
       </c>
@@ -7837,7 +7838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>583</v>
       </c>
@@ -7854,7 +7855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>585</v>
       </c>
@@ -7871,7 +7872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>587</v>
       </c>
@@ -7888,7 +7889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>589</v>
       </c>
@@ -7905,7 +7906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>591</v>
       </c>
@@ -7922,7 +7923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>593</v>
       </c>
@@ -7939,7 +7940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>595</v>
       </c>
@@ -7956,7 +7957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>597</v>
       </c>
@@ -7973,7 +7974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>599</v>
       </c>
@@ -7990,7 +7991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>601</v>
       </c>
@@ -8007,7 +8008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>603</v>
       </c>
@@ -8024,7 +8025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>605</v>
       </c>
@@ -8041,7 +8042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>607</v>
       </c>
@@ -8058,7 +8059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>609</v>
       </c>
@@ -8075,7 +8076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>611</v>
       </c>
@@ -8092,7 +8093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>613</v>
       </c>
@@ -8109,7 +8110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>615</v>
       </c>
@@ -8126,7 +8127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>617</v>
       </c>
@@ -8143,7 +8144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>619</v>
       </c>
@@ -8160,7 +8161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>621</v>
       </c>
@@ -8177,7 +8178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>623</v>
       </c>
@@ -8194,7 +8195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>625</v>
       </c>
@@ -8211,7 +8212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>627</v>
       </c>
@@ -8228,7 +8229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>629</v>
       </c>
@@ -8245,7 +8246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>631</v>
       </c>
@@ -8262,7 +8263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>633</v>
       </c>
@@ -8279,7 +8280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>635</v>
       </c>
@@ -8296,7 +8297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>637</v>
       </c>
@@ -8313,7 +8314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>639</v>
       </c>
@@ -8330,7 +8331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>641</v>
       </c>
@@ -8347,7 +8348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>643</v>
       </c>
@@ -8364,7 +8365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>645</v>
       </c>
@@ -8381,7 +8382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>647</v>
       </c>
@@ -8398,7 +8399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>649</v>
       </c>
@@ -8415,7 +8416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>651</v>
       </c>
@@ -8432,7 +8433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>653</v>
       </c>
@@ -8449,7 +8450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>655</v>
       </c>
@@ -8466,7 +8467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>657</v>
       </c>
@@ -8483,7 +8484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>659</v>
       </c>
@@ -8500,7 +8501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>661</v>
       </c>
@@ -8517,7 +8518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>663</v>
       </c>
@@ -8534,7 +8535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>665</v>
       </c>
@@ -8551,7 +8552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>667</v>
       </c>
@@ -8568,7 +8569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>669</v>
       </c>
@@ -8585,7 +8586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>671</v>
       </c>
@@ -8602,7 +8603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>673</v>
       </c>
@@ -8619,7 +8620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>675</v>
       </c>
@@ -8636,7 +8637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>677</v>
       </c>
@@ -8653,7 +8654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>679</v>
       </c>
@@ -8670,7 +8671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>681</v>
       </c>
@@ -8687,7 +8688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>683</v>
       </c>
@@ -8704,7 +8705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>685</v>
       </c>
@@ -8721,7 +8722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>687</v>
       </c>
@@ -8738,7 +8739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>689</v>
       </c>
@@ -8755,7 +8756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>691</v>
       </c>
@@ -8772,7 +8773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>693</v>
       </c>
@@ -8789,7 +8790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>695</v>
       </c>
@@ -8806,7 +8807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>697</v>
       </c>
@@ -8823,7 +8824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>699</v>
       </c>
@@ -8840,7 +8841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>701</v>
       </c>
@@ -8857,7 +8858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>703</v>
       </c>
@@ -8874,7 +8875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>705</v>
       </c>
@@ -8891,7 +8892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>707</v>
       </c>
@@ -8908,7 +8909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>709</v>
       </c>
@@ -8925,7 +8926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>711</v>
       </c>
@@ -8942,7 +8943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>713</v>
       </c>
@@ -8959,7 +8960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>715</v>
       </c>
@@ -8976,7 +8977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>717</v>
       </c>
@@ -8993,7 +8994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>719</v>
       </c>
@@ -9010,7 +9011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>721</v>
       </c>
@@ -9027,7 +9028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>723</v>
       </c>
@@ -9044,7 +9045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>725</v>
       </c>
@@ -9061,7 +9062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>727</v>
       </c>
@@ -9078,7 +9079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>729</v>
       </c>
@@ -9095,7 +9096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>731</v>
       </c>
@@ -9112,7 +9113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>733</v>
       </c>
@@ -9129,7 +9130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>735</v>
       </c>
@@ -9146,7 +9147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>737</v>
       </c>
@@ -9163,7 +9164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>739</v>
       </c>
@@ -9180,7 +9181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>741</v>
       </c>
@@ -9197,7 +9198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>743</v>
       </c>
@@ -9214,7 +9215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>745</v>
       </c>
@@ -9231,7 +9232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>747</v>
       </c>
@@ -9248,7 +9249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>749</v>
       </c>
@@ -9265,7 +9266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>751</v>
       </c>
@@ -9282,7 +9283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>753</v>
       </c>
@@ -9299,7 +9300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>755</v>
       </c>
@@ -9316,7 +9317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>757</v>
       </c>
@@ -9333,7 +9334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>759</v>
       </c>
@@ -9350,7 +9351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>761</v>
       </c>
@@ -9367,7 +9368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>763</v>
       </c>
@@ -9384,7 +9385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>765</v>
       </c>
@@ -9401,7 +9402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>767</v>
       </c>
@@ -9418,7 +9419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>769</v>
       </c>
@@ -9435,7 +9436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>771</v>
       </c>
@@ -9452,7 +9453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>773</v>
       </c>
@@ -9469,7 +9470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>775</v>
       </c>
@@ -9486,7 +9487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>777</v>
       </c>
@@ -9503,7 +9504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>779</v>
       </c>
@@ -9520,7 +9521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>781</v>
       </c>
@@ -9537,7 +9538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>783</v>
       </c>
@@ -9554,7 +9555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>785</v>
       </c>
@@ -9571,7 +9572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>787</v>
       </c>
@@ -9588,7 +9589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>789</v>
       </c>
@@ -9605,7 +9606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>791</v>
       </c>
@@ -9622,7 +9623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>793</v>
       </c>
@@ -9639,7 +9640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>795</v>
       </c>
@@ -9656,7 +9657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>797</v>
       </c>
@@ -9673,7 +9674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>799</v>
       </c>
@@ -9690,7 +9691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>801</v>
       </c>
@@ -9707,7 +9708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>803</v>
       </c>
@@ -9724,7 +9725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>805</v>
       </c>
@@ -9741,7 +9742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>807</v>
       </c>
@@ -9758,7 +9759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>809</v>
       </c>
@@ -9775,7 +9776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>811</v>
       </c>
@@ -9792,7 +9793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>813</v>
       </c>
@@ -9809,7 +9810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>815</v>
       </c>
@@ -9826,7 +9827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>817</v>
       </c>
@@ -9843,7 +9844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>819</v>
       </c>
@@ -9866,6 +9867,283 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A074552F-3288-4A76-A45E-C9417187D19C}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>400</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A28"/>
   <sheetViews>
@@ -9873,147 +10151,147 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>845</v>
       </c>
